--- a/data/trans_dic/P12_2_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1397095576911441</v>
+        <v>0.1383844152493074</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1161229918853081</v>
+        <v>0.1180034180797113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1012098840127253</v>
+        <v>0.0993997220465514</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1306928575024152</v>
+        <v>0.1312696764340689</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2108406187588678</v>
+        <v>0.2081959735898848</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.161580655562585</v>
+        <v>0.1690912407166559</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1017082450531501</v>
+        <v>0.1025218017581402</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1536892938411375</v>
+        <v>0.1535956024293447</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.176641261416842</v>
+        <v>0.1804566064438277</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1488104928977273</v>
+        <v>0.1469770723952013</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.110493625213501</v>
+        <v>0.1106359585609315</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1491363579755031</v>
+        <v>0.1483473064674228</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2117926537873333</v>
+        <v>0.2084202486564402</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1916506087146444</v>
+        <v>0.1901544223340212</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1679090342869534</v>
+        <v>0.1632810263321327</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1956100469043867</v>
+        <v>0.1942652592219631</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3123440641292636</v>
+        <v>0.3066031268202002</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2612482042597647</v>
+        <v>0.2637245386611046</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1786167064287114</v>
+        <v>0.1790763875270535</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2164870066646425</v>
+        <v>0.2158200438583384</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2346043241888638</v>
+        <v>0.2410356504969971</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.207776581516268</v>
+        <v>0.2066571487904714</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1599817473687765</v>
+        <v>0.1593191886987495</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.194147849410877</v>
+        <v>0.1948190729471578</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.08157687882612334</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1351486563933161</v>
+        <v>0.135148656393316</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2496438407266052</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.125140649235026</v>
+        <v>0.1252798819824929</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1279666208909576</v>
+        <v>0.126897934399496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05825937312806424</v>
+        <v>0.05466565582197071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1085441274231053</v>
+        <v>0.1091397816619712</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2091670320981426</v>
+        <v>0.2034952868445658</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.177022159075803</v>
+        <v>0.1793731621663719</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1329774878397594</v>
+        <v>0.134377724819749</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1823090874654882</v>
+        <v>0.1779577450770912</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1780905409243036</v>
+        <v>0.1817612160750072</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1621245657435743</v>
+        <v>0.1652410732513258</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1035321568076768</v>
+        <v>0.1024027807716845</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1504832259390961</v>
+        <v>0.1490847829450479</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2056732984144563</v>
+        <v>0.2060933006145421</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2084596445543535</v>
+        <v>0.2111604640828548</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1152464844691933</v>
+        <v>0.1139771167095095</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1716601284383876</v>
+        <v>0.1714728258409708</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2977907190742273</v>
+        <v>0.2935004446811087</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2708257620534576</v>
+        <v>0.2719851525829514</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.215300818268755</v>
+        <v>0.2177603610882577</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2466704555638021</v>
+        <v>0.2460062581912958</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2367679802332614</v>
+        <v>0.2381497732622816</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2245171668877562</v>
+        <v>0.227769822236573</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1528006706319992</v>
+        <v>0.1539228188562859</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1955151773547023</v>
+        <v>0.1948086755172853</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1763204238919309</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1724284555203582</v>
+        <v>0.1724284555203581</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2859834368808615</v>
@@ -957,7 +957,7 @@
         <v>0.2146754533827013</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.256877572891603</v>
+        <v>0.2568775728916029</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2173165653562134</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1632134442529147</v>
+        <v>0.1636512021306956</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1591922194853965</v>
+        <v>0.1665386670321228</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1443695250411448</v>
+        <v>0.1458108559006448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1396283235442524</v>
+        <v>0.1431037627247521</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2208370267405763</v>
+        <v>0.2204612907718772</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1866267303881217</v>
+        <v>0.1848572080547789</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1561413922553193</v>
+        <v>0.154900273921894</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2075916231643353</v>
+        <v>0.2091854688647803</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1883724532496648</v>
+        <v>0.1881410802025314</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1813260435722451</v>
+        <v>0.1806066816379612</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1570911462299693</v>
+        <v>0.1572777465168435</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1649394006898814</v>
+        <v>0.1669300947801921</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2306904910123736</v>
+        <v>0.2299912693931178</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2254557240733931</v>
+        <v>0.229680353041329</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2122351333118158</v>
+        <v>0.212658683508948</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2064450192996388</v>
+        <v>0.2093516835452736</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3639044277250694</v>
+        <v>0.3602532453447376</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2911287857844433</v>
+        <v>0.2992493874726728</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2855650110034559</v>
+        <v>0.3014271434465944</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3155984815097611</v>
+        <v>0.314737715448032</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2484128597161681</v>
+        <v>0.2486398339110607</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.235666223225312</v>
+        <v>0.2367754142445946</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.219187304756802</v>
+        <v>0.218807886530503</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2268766281879525</v>
+        <v>0.2253525636564339</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2155611697864475</v>
+        <v>0.214349402971272</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1696449929313475</v>
+        <v>0.1690674041932619</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1537267119751718</v>
+        <v>0.1539404215350766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1673723475624347</v>
+        <v>0.167863768243242</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2133111186998489</v>
+        <v>0.2089141274865687</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1844642407716137</v>
+        <v>0.1845187405188634</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1557360898149561</v>
+        <v>0.1557431332499425</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2068440901251261</v>
+        <v>0.2073301044655612</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2217296391647689</v>
+        <v>0.2216983930516821</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.183721088091043</v>
+        <v>0.1810481496902573</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1628517851643373</v>
+        <v>0.1602262337849125</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1913499236112028</v>
+        <v>0.1927682245891437</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2638320076172055</v>
+        <v>0.2620798473773825</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.215385031022571</v>
+        <v>0.2162232632836585</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1987400385955427</v>
+        <v>0.1968581329975169</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2137470668890516</v>
+        <v>0.2128482932382489</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2767475275846118</v>
+        <v>0.2733726009089584</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2455926733672582</v>
+        <v>0.2442066955577625</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.208253599952735</v>
+        <v>0.2104044689076974</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2531897785425004</v>
+        <v>0.25500802925578</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2608682218717355</v>
+        <v>0.2589669370135443</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2210878843106042</v>
+        <v>0.2197519212811775</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1966160926363371</v>
+        <v>0.1958549141316154</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2248704763094024</v>
+        <v>0.2266274000392696</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2885494171419782</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2799863295739387</v>
+        <v>0.2799863295739386</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.282721053598741</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1703696362994316</v>
+        <v>0.1737578244253466</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1461782449675098</v>
+        <v>0.1441688801918581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1714262966765103</v>
+        <v>0.173980127207912</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1680251491535949</v>
+        <v>0.1679738299377551</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2873613396182728</v>
+        <v>0.2879064234720898</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2735016661025412</v>
+        <v>0.2733842967118777</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2552772317200056</v>
+        <v>0.2537161339278806</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2564406564949582</v>
+        <v>0.2561597907113143</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2528220742489316</v>
+        <v>0.2529368382540514</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2276211638308306</v>
+        <v>0.2303623301938074</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2268996203451992</v>
+        <v>0.2296084762273281</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2292423382351057</v>
+        <v>0.2299746384451757</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.26177743635326</v>
+        <v>0.2604302627916678</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2146069847607746</v>
+        <v>0.2131157062939565</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2354386355059468</v>
+        <v>0.2399384373207963</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2379898277630258</v>
+        <v>0.241190518911802</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3689598911530864</v>
+        <v>0.3662455448863507</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3407119724011038</v>
+        <v>0.3438712698249811</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3208786219312008</v>
+        <v>0.321389340842924</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3058926755704727</v>
+        <v>0.3088524593304251</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3129857793831433</v>
+        <v>0.3135890895022114</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2798614703759528</v>
+        <v>0.2788568161949672</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2760800168157107</v>
+        <v>0.2757607421835938</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2723139387845157</v>
+        <v>0.2703828118727992</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.07337279238452475</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.05419355499313584</v>
+        <v>0.05419355499313582</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.3384059477448721</v>
@@ -1365,7 +1365,7 @@
         <v>0.2528779610195406</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2260554249176311</v>
+        <v>0.226055424917631</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.286572134841511</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04451604062607369</v>
+        <v>0.04759907028139867</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04437838578626077</v>
+        <v>0.04533832180094044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04698252666679752</v>
+        <v>0.04509598441896576</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02426866881531136</v>
+        <v>0.02623803519020307</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3135778996018088</v>
+        <v>0.3142989250242965</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2445361282837891</v>
+        <v>0.2462895454134348</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2234606095102138</v>
+        <v>0.2278611425697379</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2020565615106001</v>
+        <v>0.201851420023141</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2639041981184991</v>
+        <v>0.2648120533425799</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2107772247265337</v>
+        <v>0.2107090939631189</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1934287523217369</v>
+        <v>0.1911910037839508</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1678476086275467</v>
+        <v>0.1651359818298451</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1015670860988139</v>
+        <v>0.1043288422862079</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1078318055888737</v>
+        <v>0.1126924224557174</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1089968227444047</v>
+        <v>0.1108888664316785</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1048486360151895</v>
+        <v>0.1168188127651649</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3689848923039293</v>
+        <v>0.3683521256848584</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3011731182555539</v>
+        <v>0.3034863347028276</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2792473622930901</v>
+        <v>0.2824477112313225</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2512923685515393</v>
+        <v>0.252192852573538</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3144477092585192</v>
+        <v>0.3109338271450039</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2585615616708845</v>
+        <v>0.2606797142733276</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2366330342007054</v>
+        <v>0.239429650807701</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2100765308983525</v>
+        <v>0.2097305833745848</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.182075660851032</v>
+        <v>0.1812729923855337</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1598028390183641</v>
+        <v>0.160207952023804</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1445412296677075</v>
+        <v>0.1436062373614121</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1553630557606642</v>
+        <v>0.1545625533030536</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2819428535797288</v>
+        <v>0.2814844531843243</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2400231231364477</v>
+        <v>0.239795057516658</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2071594537853574</v>
+        <v>0.2080218391925966</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2215816475345987</v>
+        <v>0.2222351950995543</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2360184138812594</v>
+        <v>0.2369275381172638</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2036992858208585</v>
+        <v>0.203937024937633</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1794539979727332</v>
+        <v>0.1805810919589084</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1926490918744057</v>
+        <v>0.1934103763733065</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2106295412456747</v>
+        <v>0.2097468930098562</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1874592642742123</v>
+        <v>0.1868529942777888</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1692208931606457</v>
+        <v>0.1690108915030479</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1812304632975325</v>
+        <v>0.1811213901187131</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3122559845889121</v>
+        <v>0.3118145000275888</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.270064341672407</v>
+        <v>0.2689848675643054</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2370616110238779</v>
+        <v>0.2360242377249132</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2462968330471648</v>
+        <v>0.2463048339884303</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2568398748860198</v>
+        <v>0.2576310326889925</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2247458728470512</v>
+        <v>0.2244120595253757</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1991274676515896</v>
+        <v>0.1992058691929562</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2102694762821881</v>
+        <v>0.2118840426732536</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>66191</v>
+        <v>65563</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>50770</v>
+        <v>51592</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>43428</v>
+        <v>42652</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>71962</v>
+        <v>72279</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>64661</v>
+        <v>63850</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>50810</v>
+        <v>53171</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>35298</v>
+        <v>35581</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>75064</v>
+        <v>75018</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>137861</v>
+        <v>140839</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>111856</v>
+        <v>110478</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>85759</v>
+        <v>85870</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>154957</v>
+        <v>154137</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>100342</v>
+        <v>98745</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>83792</v>
+        <v>83138</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>72048</v>
+        <v>70063</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>107706</v>
+        <v>106966</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>95790</v>
+        <v>94029</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>82151</v>
+        <v>82929</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>61990</v>
+        <v>62149</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>105735</v>
+        <v>105409</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>183099</v>
+        <v>188118</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>156178</v>
+        <v>155337</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>124169</v>
+        <v>123655</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>201725</v>
+        <v>202423</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>45918</v>
+        <v>45969</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>53592</v>
+        <v>53144</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21922</v>
+        <v>20569</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>52450</v>
+        <v>52738</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>77782</v>
+        <v>75673</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>59835</v>
+        <v>60630</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>49362</v>
+        <v>49881</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>77143</v>
+        <v>75302</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>131573</v>
+        <v>134285</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>122697</v>
+        <v>125056</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>77388</v>
+        <v>76544</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>136391</v>
+        <v>135124</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>75469</v>
+        <v>75623</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>87302</v>
+        <v>88433</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43364</v>
+        <v>42887</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>82948</v>
+        <v>82858</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>110738</v>
+        <v>109143</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>91542</v>
+        <v>91934</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>79920</v>
+        <v>80833</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>104377</v>
+        <v>104096</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>174924</v>
+        <v>175945</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>169916</v>
+        <v>172378</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>114215</v>
+        <v>115054</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>177206</v>
+        <v>176566</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>88525</v>
+        <v>88763</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>100018</v>
+        <v>104633</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>75183</v>
+        <v>75934</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>65850</v>
+        <v>67489</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>37052</v>
+        <v>36989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>48361</v>
+        <v>47902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>25939</v>
+        <v>25732</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>38805</v>
+        <v>39103</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>133777</v>
+        <v>133612</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>160911</v>
+        <v>160273</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>107904</v>
+        <v>108033</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>108619</v>
+        <v>109930</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>125124</v>
+        <v>124745</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>141650</v>
+        <v>144304</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>110525</v>
+        <v>110746</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>97362</v>
+        <v>98733</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>61057</v>
+        <v>60444</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>75441</v>
+        <v>77545</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>47439</v>
+        <v>50074</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>58995</v>
+        <v>58834</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>176416</v>
+        <v>176577</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>209134</v>
+        <v>210118</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>150558</v>
+        <v>150297</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>149407</v>
+        <v>148404</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>266937</v>
+        <v>265436</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>196456</v>
+        <v>195787</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>176421</v>
+        <v>176666</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>189274</v>
+        <v>189830</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>152365</v>
+        <v>149224</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>141042</v>
+        <v>141083</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>128334</v>
+        <v>128340</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>178136</v>
+        <v>178555</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>432954</v>
+        <v>432893</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>353230</v>
+        <v>348091</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>321090</v>
+        <v>315914</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>381182</v>
+        <v>384007</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>326712</v>
+        <v>324542</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>249425</v>
+        <v>250396</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>228079</v>
+        <v>225920</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>241717</v>
+        <v>240701</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>197677</v>
+        <v>195266</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>187780</v>
+        <v>186721</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>171611</v>
+        <v>173383</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>218050</v>
+        <v>219616</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>509377</v>
+        <v>505664</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>425074</v>
+        <v>422505</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>387662</v>
+        <v>386162</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>447957</v>
+        <v>451457</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>59724</v>
+        <v>60912</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>74638</v>
+        <v>73612</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>106405</v>
+        <v>107991</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>95432</v>
+        <v>95403</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>163437</v>
+        <v>163747</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>208017</v>
+        <v>207928</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>188457</v>
+        <v>187304</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>212779</v>
+        <v>212546</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>232421</v>
+        <v>232527</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>289345</v>
+        <v>292829</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>308345</v>
+        <v>312026</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>320413</v>
+        <v>321436</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>91767</v>
+        <v>91295</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>109577</v>
+        <v>108816</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>146138</v>
+        <v>148931</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>135170</v>
+        <v>136988</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>209847</v>
+        <v>208303</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>259136</v>
+        <v>261539</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>236887</v>
+        <v>237264</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>253811</v>
+        <v>256267</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>287730</v>
+        <v>288285</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>355751</v>
+        <v>354474</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>375179</v>
+        <v>374745</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>380614</v>
+        <v>377915</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>13275</v>
+        <v>14194</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>11802</v>
+        <v>12057</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>13491</v>
+        <v>12949</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5757</v>
+        <v>6224</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>391584</v>
+        <v>392484</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>270554</v>
+        <v>272494</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>241048</v>
+        <v>245795</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>170197</v>
+        <v>170024</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>408249</v>
+        <v>409654</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>289258</v>
+        <v>289165</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>264194</v>
+        <v>261138</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>181200</v>
+        <v>178273</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>30287</v>
+        <v>31111</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>28677</v>
+        <v>29970</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>31298</v>
+        <v>31841</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>24873</v>
+        <v>27713</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>460774</v>
+        <v>459983</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>333217</v>
+        <v>335776</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>301225</v>
+        <v>304677</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>211670</v>
+        <v>212428</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>486438</v>
+        <v>481002</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>354835</v>
+        <v>357741</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>323205</v>
+        <v>327025</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>226789</v>
+        <v>226415</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>595422</v>
+        <v>592797</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>546346</v>
+        <v>547731</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>488782</v>
+        <v>485621</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>534680</v>
+        <v>531925</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>952438</v>
+        <v>950889</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>850442</v>
+        <v>849633</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>730315</v>
+        <v>733355</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>804731</v>
+        <v>807105</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1569125</v>
+        <v>1575169</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1418163</v>
+        <v>1419818</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1239486</v>
+        <v>1247271</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1362655</v>
+        <v>1368039</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>688799</v>
+        <v>685912</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>640900</v>
+        <v>638827</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>572239</v>
+        <v>571529</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>623702</v>
+        <v>623327</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1054839</v>
+        <v>1053348</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>956883</v>
+        <v>953058</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>835731</v>
+        <v>832074</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>894491</v>
+        <v>894520</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1707552</v>
+        <v>1712812</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1564690</v>
+        <v>1562366</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1375371</v>
+        <v>1375912</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1487288</v>
+        <v>1498708</v>
       </c>
     </row>
     <row r="32">
